--- a/biology/Biologie cellulaire et moléculaire/3-Isopropylmalate_déshydratase/3-Isopropylmalate_déshydratase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/3-Isopropylmalate_déshydratase/3-Isopropylmalate_déshydratase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3-Isopropylmalate_d%C3%A9shydratase</t>
+          <t>3-Isopropylmalate_déshydratase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La 3-isopropylmalate déshydratase est une enzyme qui catalyse la réaction stéréospécifique d'isomérisation du 3-isopropylmalate en 2-isopropylmalate via le 2-isopropylmaleate au moyen d'une déshydratation transitoire :
 (2R,3S) 3-isopropylmalate   
@@ -490,7 +502,7 @@
         ⇌
     {\displaystyle \rightleftharpoons }
    (2S) 2-isopropylmalate.
-C'est une enzyme homologue de l'aconitase[1],[2],[3], protéine fer-soufre du cycle de Krebs qui catalyse de la même façon l'isomérisation stéréospécifique du citrate en isocitrate via le cis-aconitate par déshydratation transitoire.
+C'est une enzyme homologue de l'aconitase protéine fer-soufre du cycle de Krebs qui catalyse de la même façon l'isomérisation stéréospécifique du citrate en isocitrate via le cis-aconitate par déshydratation transitoire.
 </t>
         </is>
       </c>
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3-Isopropylmalate_d%C3%A9shydratase</t>
+          <t>3-Isopropylmalate_déshydratase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,7 +531,9 @@
           <t>Dénominations alternatives</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(2R,3S) 3-isopropylmalate hydro-lyase.
 3-isopropylmalate hydro-lyase.
